--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/모니터해상도.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/모니터해상도.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\09_ihanseol - 2024\Z01_소소한작업들\04_Excel Automaiton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12_dev\02_Excel2\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8545599D-3B68-4F3A-8C76-C25AC2C6EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADACED0-BFE9-4EAD-994F-F9243628A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="19770" xr2:uid="{4B4C7C8A-A003-44E1-878C-B52F6B52F4CE}"/>
+    <workbookView xWindow="6870" yWindow="2205" windowWidth="32535" windowHeight="22485" xr2:uid="{4B4C7C8A-A003-44E1-878C-B52F6B52F4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,25 +252,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -280,9 +274,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +321,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,14 +671,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB107FC-7263-4B60-AC52-4BCAF1C4DD19}">
   <dimension ref="I4:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.125" customWidth="1"/>
     <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
@@ -684,183 +687,185 @@
   </cols>
   <sheetData>
     <row r="4" spans="9:18" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I5" s="2">
+      <c r="I5" s="25">
         <v>3072</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="26">
         <v>1728</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="O6" s="7"/>
-      <c r="R6" s="15"/>
+      <c r="L6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="R7" s="15"/>
+      <c r="L7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>16</v>
       </c>
       <c r="J8" s="1">
         <v>9</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <f>I8/J8</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <v>16</v>
       </c>
       <c r="P8" s="1">
         <v>10</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="12">
         <f>O8/P8</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="O9" s="7"/>
-      <c r="R9" s="15"/>
+      <c r="L9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="R10" s="15"/>
+      <c r="L10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="O11" s="7" t="s">
+      <c r="L11" s="4"/>
+      <c r="O11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="15"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>2560</v>
       </c>
       <c r="J12" s="1">
         <v>1440</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <f t="shared" ref="L12:L14" si="0">J12*$L$8</f>
         <v>2560</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="5">
         <v>2560</v>
       </c>
       <c r="P12" s="1">
         <v>1600</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="12">
         <f>P12*$R$8</f>
         <v>2560</v>
       </c>
     </row>
     <row r="13" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>1920</v>
       </c>
       <c r="J13" s="1">
         <v>1080</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="1">
         <v>1500</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="12">
         <f t="shared" ref="R13:R28" si="1">P13*$R$8</f>
         <v>2400</v>
       </c>
     </row>
     <row r="14" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <v>3840</v>
       </c>
       <c r="J14" s="1">
         <v>2160</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
         <v>3840</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="1">
         <v>1400</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="12">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
     </row>
     <row r="15" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I15" s="21">
+      <c r="I15" s="18">
         <v>3200</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="19">
         <v>1800</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24">
+      <c r="K15" s="20"/>
+      <c r="L15" s="21">
         <f t="shared" ref="L15:L24" si="2">J15*$L$8</f>
         <v>3200</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="1">
         <v>1300</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="12">
         <f t="shared" si="1"/>
         <v>2080</v>
       </c>
     </row>
     <row r="16" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I16" s="5"/>
-      <c r="J16" s="1">
-        <v>1810</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="I16" s="23">
+        <v>3072</v>
+      </c>
+      <c r="J16" s="24">
+        <v>1728</v>
+      </c>
+      <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>3217.7777777777774</v>
-      </c>
-      <c r="O16" s="7"/>
+        <v>3072</v>
+      </c>
+      <c r="O16" s="5"/>
       <c r="P16" s="1">
         <v>1280</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="12">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
@@ -870,16 +875,16 @@
       <c r="J17" s="1">
         <v>1820</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <f t="shared" si="2"/>
         <v>3235.5555555555552</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="19">
+      <c r="O17" s="5"/>
+      <c r="P17" s="16">
         <v>1350</v>
       </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20">
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
@@ -889,12 +894,12 @@
       <c r="J18" s="1">
         <v>1830</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <f t="shared" si="2"/>
         <v>3253.333333333333</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="R18" s="15">
+      <c r="O18" s="5"/>
+      <c r="R18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -904,12 +909,12 @@
       <c r="J19" s="1">
         <v>1840</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="4">
         <f t="shared" si="2"/>
         <v>3271.1111111111109</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="R19" s="15">
+      <c r="O19" s="5"/>
+      <c r="R19" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -919,12 +924,12 @@
       <c r="J20" s="1">
         <v>1850</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <f t="shared" si="2"/>
         <v>3288.8888888888887</v>
       </c>
-      <c r="O20" s="7"/>
-      <c r="R20" s="15">
+      <c r="O20" s="5"/>
+      <c r="R20" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -934,12 +939,12 @@
       <c r="J21" s="1">
         <v>1860</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="4">
         <f t="shared" si="2"/>
         <v>3306.6666666666665</v>
       </c>
-      <c r="O21" s="7"/>
-      <c r="R21" s="15">
+      <c r="O21" s="5"/>
+      <c r="R21" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -949,12 +954,12 @@
       <c r="J22" s="1">
         <v>1870</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="4">
         <f t="shared" si="2"/>
         <v>3324.4444444444443</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="R22" s="15">
+      <c r="O22" s="5"/>
+      <c r="R22" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -964,12 +969,12 @@
       <c r="J23" s="1">
         <v>1880</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="4">
         <f t="shared" si="2"/>
         <v>3342.2222222222222</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="R23" s="15">
+      <c r="O23" s="5"/>
+      <c r="R23" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -979,139 +984,139 @@
       <c r="J24" s="1">
         <v>1890</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <f t="shared" si="2"/>
         <v>3360</v>
       </c>
-      <c r="O24" s="7"/>
-      <c r="R24" s="15">
+      <c r="O24" s="5"/>
+      <c r="R24" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I25" s="5"/>
-      <c r="L25" s="6"/>
-      <c r="O25" s="7"/>
-      <c r="R25" s="15">
+      <c r="L25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="R25" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I26" s="5"/>
-      <c r="L26" s="6"/>
-      <c r="O26" s="7"/>
-      <c r="R26" s="15">
+      <c r="L26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="R26" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I27" s="5"/>
-      <c r="L27" s="6"/>
-      <c r="O27" s="7"/>
-      <c r="R27" s="15">
+      <c r="L27" s="4"/>
+      <c r="O27" s="5"/>
+      <c r="R27" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="O28" s="7"/>
-      <c r="R28" s="15">
+      <c r="L28" s="4"/>
+      <c r="O28" s="5"/>
+      <c r="R28" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I29" s="5"/>
-      <c r="L29" s="6"/>
-      <c r="O29" s="7"/>
-      <c r="R29" s="15"/>
+      <c r="L29" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="R29" s="12"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I30" s="5"/>
-      <c r="L30" s="6"/>
-      <c r="O30" s="7"/>
-      <c r="R30" s="15"/>
+      <c r="L30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="R30" s="12"/>
     </row>
     <row r="31" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I31" s="5"/>
-      <c r="L31" s="6"/>
-      <c r="O31" s="7"/>
-      <c r="R31" s="15"/>
+      <c r="L31" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="R31" s="12"/>
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I32" s="5"/>
-      <c r="L32" s="6"/>
-      <c r="O32" s="7"/>
-      <c r="R32" s="15"/>
+      <c r="L32" s="4"/>
+      <c r="O32" s="5"/>
+      <c r="R32" s="12"/>
     </row>
     <row r="33" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I33" s="5"/>
-      <c r="L33" s="6"/>
-      <c r="O33" s="7"/>
-      <c r="R33" s="15"/>
+      <c r="L33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="R33" s="12"/>
     </row>
     <row r="34" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I34" s="5"/>
-      <c r="L34" s="6"/>
-      <c r="O34" s="7"/>
-      <c r="R34" s="15"/>
+      <c r="L34" s="4"/>
+      <c r="O34" s="5"/>
+      <c r="R34" s="12"/>
     </row>
     <row r="35" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I35" s="5"/>
-      <c r="L35" s="6"/>
-      <c r="O35" s="7"/>
-      <c r="R35" s="15"/>
+      <c r="L35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="R35" s="12"/>
     </row>
     <row r="36" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I36" s="5"/>
-      <c r="L36" s="6"/>
-      <c r="O36" s="7"/>
-      <c r="R36" s="15"/>
+      <c r="L36" s="4"/>
+      <c r="O36" s="5"/>
+      <c r="R36" s="12"/>
     </row>
     <row r="37" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="O37" s="7"/>
-      <c r="R37" s="15"/>
+      <c r="L37" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="R37" s="12"/>
     </row>
     <row r="38" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I38" s="5"/>
-      <c r="L38" s="6"/>
-      <c r="O38" s="7"/>
-      <c r="R38" s="15"/>
+      <c r="L38" s="4"/>
+      <c r="O38" s="5"/>
+      <c r="R38" s="12"/>
     </row>
     <row r="39" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I39" s="5"/>
-      <c r="L39" s="6"/>
-      <c r="O39" s="7"/>
-      <c r="R39" s="15"/>
+      <c r="L39" s="4"/>
+      <c r="O39" s="5"/>
+      <c r="R39" s="12"/>
     </row>
     <row r="40" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I40" s="5"/>
-      <c r="L40" s="6"/>
-      <c r="O40" s="7"/>
-      <c r="R40" s="15"/>
+      <c r="L40" s="4"/>
+      <c r="O40" s="5"/>
+      <c r="R40" s="12"/>
     </row>
     <row r="41" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I41" s="5"/>
-      <c r="L41" s="6"/>
-      <c r="O41" s="7"/>
-      <c r="R41" s="15"/>
+      <c r="L41" s="4"/>
+      <c r="O41" s="5"/>
+      <c r="R41" s="12"/>
     </row>
     <row r="42" spans="9:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="11"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="18"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/모니터해상도.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/모니터해상도.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12_dev\02_Excel2\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADACED0-BFE9-4EAD-994F-F9243628A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753A38E-1E9C-4AD1-9FE6-B076909CB47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="2205" windowWidth="32535" windowHeight="22485" xr2:uid="{4B4C7C8A-A003-44E1-878C-B52F6B52F4CE}"/>
+    <workbookView xWindow="48030" yWindow="1950" windowWidth="28965" windowHeight="17400" xr2:uid="{4B4C7C8A-A003-44E1-878C-B52F6B52F4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +333,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB107FC-7263-4B60-AC52-4BCAF1C4DD19}">
   <dimension ref="I4:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -838,7 +844,7 @@
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="21">
-        <f t="shared" ref="L15:L24" si="2">J15*$L$8</f>
+        <f t="shared" ref="L15:L29" si="2">J15*$L$8</f>
         <v>3200</v>
       </c>
       <c r="O15" s="5"/>
@@ -996,7 +1002,13 @@
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I25" s="5"/>
-      <c r="L25" s="4"/>
+      <c r="J25" s="1">
+        <v>1600</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="2"/>
+        <v>2844.4444444444443</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="R25" s="12">
         <f t="shared" si="1"/>
@@ -1005,7 +1017,13 @@
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I26" s="5"/>
-      <c r="L26" s="4"/>
+      <c r="J26" s="1">
+        <v>1590</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="2"/>
+        <v>2826.6666666666665</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="R26" s="12">
         <f t="shared" si="1"/>
@@ -1014,7 +1032,13 @@
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I27" s="5"/>
-      <c r="L27" s="4"/>
+      <c r="J27" s="1">
+        <v>1592</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="2"/>
+        <v>2830.2222222222222</v>
+      </c>
       <c r="O27" s="5"/>
       <c r="R27" s="12">
         <f t="shared" si="1"/>
@@ -1023,7 +1047,14 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I28" s="5"/>
-      <c r="L28" s="4"/>
+      <c r="J28" s="24">
+        <v>1593</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28">
+        <f t="shared" si="2"/>
+        <v>2832</v>
+      </c>
       <c r="O28" s="5"/>
       <c r="R28" s="12">
         <f t="shared" si="1"/>
@@ -1032,7 +1063,14 @@
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I29" s="5"/>
-      <c r="L29" s="4"/>
+      <c r="J29" s="24">
+        <v>1602</v>
+      </c>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28">
+        <f t="shared" si="2"/>
+        <v>2848</v>
+      </c>
       <c r="O29" s="5"/>
       <c r="R29" s="12"/>
     </row>
